--- a/biology/Zoologie/Hexaprotodon/Hexaprotodon.xlsx
+++ b/biology/Zoologie/Hexaprotodon/Hexaprotodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre hexaprotodon (littéralement qui a six incisives, ces animaux ayant trois paires d'incisives sur chaque mâchoire) regroupe un certain nombre d'espèces fossiles d'hippopotames comme :
 Hexaprotodon bruneti - Hexaprotodon afar (fossile) Boisserie et White, 2004 la seule espèce pour laquelle on utilise le nom vernaculaire "Hexaprotodon" pour ne pas le confondre avec Hippopotamus afarensis
@@ -502,7 +514,7 @@
 Et pour certains auteurs, deux espèces africaines dont l'une est toujours existante font partie de ce genre :
 Hexaprotodon liberiensis - hippopotame pygmée africain ou Hippopotame nain
 Hexaprotodon madagascariensis † - Hippopotame nain de Madagascar ou Hippopotame malgache
-Alors que pour d'autres auteurs ces deux espèces font partie du genre Choeropsis ou Hippopotamus en ce qui concerne uniquement l'Hippopotame nain de Madagascar. L'Hippopotame nain actuel a d'ailleurs récemment en 2021 été reclasser dans le genre Choeropsis après de nouvelles analyses mais plusieurs auteurs continuent d'utiliser le genre Hexaprotodon pour cette espèce[1]. Des débats persistent toujours quant à la classification exacte pour ces animaux.
+Alors que pour d'autres auteurs ces deux espèces font partie du genre Choeropsis ou Hippopotamus en ce qui concerne uniquement l'Hippopotame nain de Madagascar. L'Hippopotame nain actuel a d'ailleurs récemment en 2021 été reclasser dans le genre Choeropsis après de nouvelles analyses mais plusieurs auteurs continuent d'utiliser le genre Hexaprotodon pour cette espèce. Des débats persistent toujours quant à la classification exacte pour ces animaux.
 </t>
         </is>
       </c>
